--- a/test_fun/p3_phase2_SEGA23.xlsx
+++ b/test_fun/p3_phase2_SEGA23.xlsx
@@ -1,41 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gian/Documents/SEGA2023/test_fun/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF9F652-6874-9241-A9A5-43C91699C90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="45760" yWindow="2200" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$C$2:$C$6</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$C$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Sheet 1'!$C$2:$C$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$C$2:$C$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$2:$B$6</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>tpvagenas</t>
   </si>
   <si>
     <t>iwm</t>
   </si>
+  <si>
+    <t>sunshine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,24 +101,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -99,23 +132,830 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Hausdorff dist.</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Hausdorff dist.</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{200F37B9-C4AE-D04F-9872-8DD047B9E4BD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>tpvagenas</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{83D00442-7DB9-944B-9FF2-BE3A36C7560D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>iwm</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2DD5C7AD-811B-EC41-BEA4-2F62950D4F54}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>sunshine</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9472F714-EAAD-E395-A5FF-E44DBB5F56D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1701800"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -314,7 +1154,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -332,7 +1172,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -361,7 +1201,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -386,7 +1226,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -411,7 +1251,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -436,7 +1276,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -461,7 +1301,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -486,7 +1326,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -511,7 +1351,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -536,7 +1376,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -561,7 +1401,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -574,9 +1414,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -593,7 +1439,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -611,7 +1457,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -636,7 +1482,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,7 +1507,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -686,7 +1532,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +1557,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -736,7 +1582,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -761,7 +1607,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +1632,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -811,7 +1657,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -836,7 +1682,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -849,9 +1695,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -865,7 +1717,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -883,7 +1735,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +1764,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -937,7 +1789,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +1814,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -987,7 +1839,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1012,7 +1864,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1889,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1062,7 +1914,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1087,7 +1939,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1964,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,101 +1977,122 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="2" sqref="A1:A6 B1:B6 C1:C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.05" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="20.05" customHeight="1">
+    <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>6</v>
       </c>
       <c r="B2" s="4">
-        <v>1.5635</v>
+        <v>1.5634999999999999</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>2.001757</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>15.16015</v>
       </c>
       <c r="B3" s="4">
-        <v>2.383055</v>
+        <v>2.3830550000000001</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>2.781425</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
-        <v>10.58532</v>
+        <v>10.585319999999999</v>
       </c>
       <c r="B4" s="4">
-        <v>10.7625</v>
+        <v>10.762499999999999</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>8.9938830000000003</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>1.9777</v>
       </c>
       <c r="B5" s="4">
-        <v>2.91897</v>
+        <v>2.9189699999999998</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>5.5390050000000004</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>2.902088</v>
       </c>
       <c r="B6" s="4">
         <v>18.956</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>11.001054999999999</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1227,7 +2100,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
+    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1235,7 +2108,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1243,7 +2116,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1251,7 +2124,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1259,7 +2132,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1267,7 +2140,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1275,7 +2148,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1283,7 +2156,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1291,7 +2164,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
+    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1299,7 +2172,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
+    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1307,7 +2180,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
+    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1315,7 +2188,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
+    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1323,7 +2196,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
+    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1331,7 +2204,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1340,10 +2213,11 @@
       <c r="F21" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_fun/p3_phase2_SEGA23.xlsx
+++ b/test_fun/p3_phase2_SEGA23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gian/Documents/SEGA2023/test_fun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959C1E46-3EFB-B045-874F-B5561E830894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED4B3CF-3374-3A43-8794-7FF4C1A2C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45760" yWindow="2200" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1990,7 +1990,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2026,7 +2026,7 @@
         <v>2.001757</v>
       </c>
       <c r="D2" s="3">
-        <v>9.02</v>
+        <v>172.52</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2042,7 +2042,7 @@
         <v>2.781425</v>
       </c>
       <c r="D3" s="3">
-        <v>10.23</v>
+        <v>97.7</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2058,7 +2058,7 @@
         <v>8.9938830000000003</v>
       </c>
       <c r="D4" s="3">
-        <v>10.130000000000001</v>
+        <v>141.12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2074,7 +2074,7 @@
         <v>5.5390050000000004</v>
       </c>
       <c r="D5" s="3">
-        <v>10.62</v>
+        <v>132.13999999999999</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2090,7 +2090,7 @@
         <v>11.001054999999999</v>
       </c>
       <c r="D6" s="3">
-        <v>9.02</v>
+        <v>101.5</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
